--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,69 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -126,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,65 +460,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental general - escala (tasa de respuesta: 98,51%)</t>
+          <t>Salud mental general - escala (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -589,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,53</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>11.21597633652569</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>14.35968270813939</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>13.10276308956605</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>14.60722439148712</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>12.16593704363001</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>14.49795175683417</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 12,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>14,0; 14,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,31; 15,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>11,32; 13,13</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14,24; 14,83</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>10.08411282602763</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>13.95290199843823</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>11.89401249767452</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>14.18280936409834</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>11.32395611513859</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>14.20790107772769</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.68561341360866</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>14.86199096919873</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.53620263405352</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.04720794628502</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.12511743296181</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.8316949977007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 11,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12,95; 13,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>11,64; 12,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>12,79; 13,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 11,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>12,93; 13,22</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>10.53334970826134</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>13.16514130106981</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>12.03748220975024</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>12.96009534702303</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>11.27968918041013</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>13.06149174881996</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>10.17087583423394</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>12.95146310753123</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>11.63662926750573</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>12.69358301815995</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>10.961875136075</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>12.89868658623602</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>11.00061093160864</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>13.3802085870604</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>12.54674891879283</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>13.21036366283373</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>11.59807266466573</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>13.2347556094275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,62</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 10,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>13,16; 13,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 10,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>13,32; 13,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 10,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>13,33; 13,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>9.841072751628065</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>13.54399930900022</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>10.53004278678718</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>13.6909833596955</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>10.22598218607131</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>13.62056655678784</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>9.476970306537066</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>13.18488957743625</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>10.16932623740898</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>13.37771519396444</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>9.965366191639847</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>13.39604132747689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>10.20007434633542</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>13.94201668423486</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>10.96336690609913</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>14.05824563215351</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>10.49949553067746</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>13.89731808511955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,54</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,45</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10,12; 10,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>13,27; 13,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11,23; 11,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,27; 13,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 11,22</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13,33; 13,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>10.37084490543481</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>13.44111771962702</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>11.54103170784169</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>13.44202313273229</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>10.97995964739089</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>13.44158681229288</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>10.123731300373</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>13.24292767918965</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>11.2258612576663</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>13.24569279013474</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>10.7746578847332</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>13.30880621078187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>10.70286880579092</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>13.6059535157507</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>11.89906609989888</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>13.62162005413577</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>11.22122413050572</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>13.5725512185959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -917,14 +864,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
